--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B7683-FC5F-48B0-BA00-B66B86C8C785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1802E8B4-7CFB-44AC-A607-18EC934CFD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -106,18 +115,6 @@
   </si>
   <si>
     <t>WoS_time_min</t>
-  </si>
-  <si>
-    <t>conmutime_mu</t>
-  </si>
-  <si>
-    <t>conmutime_sigma</t>
-  </si>
-  <si>
-    <t>conmutime_min</t>
-  </si>
-  <si>
-    <t>conmutime_max</t>
   </si>
   <si>
     <t>WoS_fixed_mu</t>
@@ -178,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +187,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -213,9 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AJ6"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,21 +536,17 @@
     <col min="20" max="20" width="19.88671875" customWidth="1"/>
     <col min="21" max="21" width="18.21875" customWidth="1"/>
     <col min="22" max="26" width="18.6640625" customWidth="1"/>
-    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,28 +560,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
         <v>23</v>
@@ -587,10 +596,10 @@
         <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
         <v>15</v>
@@ -617,16 +626,16 @@
         <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AB1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AD1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AE1" t="s">
         <v>35</v>
@@ -640,20 +649,8 @@
       <c r="AH1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -733,43 +730,31 @@
         <v>120</v>
       </c>
       <c r="AA2">
-        <v>32</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AB2">
-        <v>7</v>
+        <v>0.09</v>
       </c>
       <c r="AC2">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AD2">
-        <v>50</v>
-      </c>
-      <c r="AE2">
-        <v>8.3000000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>9.7759999999999998</v>
       </c>
       <c r="AF2">
-        <v>0.09</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AG2">
-        <v>0.1</v>
+        <v>7.91</v>
       </c>
       <c r="AH2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AI2">
-        <v>14000</v>
-      </c>
-      <c r="AJ2">
-        <v>5000</v>
-      </c>
-      <c r="AK2">
-        <v>2000</v>
-      </c>
-      <c r="AL2">
-        <v>500</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -849,43 +834,31 @@
         <v>120</v>
       </c>
       <c r="AA3">
-        <v>29</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AB3">
-        <v>7</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AC3">
-        <v>18</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="AD3">
-        <v>45</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AE3">
-        <v>7.8E-2</v>
+        <v>9.4870000000000001</v>
       </c>
       <c r="AF3">
-        <v>8.5000000000000006E-2</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="AG3">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0510000000000002</v>
       </c>
       <c r="AH3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="AI3">
-        <v>14000</v>
-      </c>
-      <c r="AJ3">
-        <v>5000</v>
-      </c>
-      <c r="AK3">
-        <v>2000</v>
-      </c>
-      <c r="AL3">
-        <v>500</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -965,43 +938,31 @@
         <v>120</v>
       </c>
       <c r="AA4">
-        <v>15</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AB4">
-        <v>5</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AC4">
-        <v>10</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AD4">
-        <v>30</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE4">
-        <v>5.3999999999999999E-2</v>
+        <v>8.2029999999999994</v>
       </c>
       <c r="AF4">
-        <v>7.1999999999999995E-2</v>
+        <v>0.372</v>
       </c>
       <c r="AG4">
-        <v>8.3000000000000004E-2</v>
+        <v>8.7249999999999996</v>
       </c>
       <c r="AH4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AI4">
-        <v>2000</v>
-      </c>
-      <c r="AJ4">
-        <v>500</v>
-      </c>
-      <c r="AK4">
-        <v>2000</v>
-      </c>
-      <c r="AL4">
-        <v>500</v>
+        <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1081,43 +1042,31 @@
         <v>120</v>
       </c>
       <c r="AA5">
-        <v>30</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AB5">
-        <v>8</v>
+        <v>0.09</v>
       </c>
       <c r="AC5">
-        <v>15</v>
+        <v>0.1</v>
       </c>
       <c r="AD5">
-        <v>45</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE5">
-        <v>7.8E-2</v>
+        <v>8.0470000000000006</v>
       </c>
       <c r="AF5">
-        <v>0.09</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.1</v>
+        <v>8.0470000000000006</v>
       </c>
       <c r="AH5">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="AI5">
-        <v>2000</v>
-      </c>
-      <c r="AJ5">
-        <v>500</v>
-      </c>
-      <c r="AK5">
-        <v>2000</v>
-      </c>
-      <c r="AL5">
-        <v>500</v>
+        <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1197,43 +1146,34 @@
         <v>120</v>
       </c>
       <c r="AA6">
-        <v>25</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AB6">
-        <v>10</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AC6">
-        <v>30</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AD6">
-        <v>45</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE6">
-        <v>4.8000000000000001E-2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AF6">
-        <v>7.1999999999999995E-2</v>
+        <v>0.32</v>
       </c>
       <c r="AG6">
-        <v>8.3000000000000004E-2</v>
+        <v>7.8360000000000003</v>
       </c>
       <c r="AH6">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AI6">
-        <v>14000</v>
-      </c>
-      <c r="AJ6">
-        <v>5000</v>
-      </c>
-      <c r="AK6">
-        <v>2000</v>
-      </c>
-      <c r="AL6">
-        <v>500</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1243,7 +1183,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1253,7 +1193,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1263,7 +1203,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1802E8B4-7CFB-44AC-A607-18EC934CFD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799618BE-0ED1-4399-BDDD-AA7F0045E7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
     <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,8 +649,9 @@
       <c r="AH1" t="s">
         <v>38</v>
       </c>
+      <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -754,7 +755,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -858,7 +859,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -962,7 +963,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1170,10 +1171,10 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1183,7 +1184,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1193,7 +1194,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1203,7 +1204,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799618BE-0ED1-4399-BDDD-AA7F0045E7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C1821A-4623-43E2-9C7E-5F3F55C750BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T2">
-        <v>0.25</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W2">
         <v>30</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T3">
-        <v>0.25</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W3">
         <v>30</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T4">
-        <v>0.25</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W4">
         <v>60</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T5">
-        <v>0.25</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W5">
         <v>60</v>
@@ -1123,16 +1123,16 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T6">
-        <v>0.25</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W6">
         <v>60</v>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C1821A-4623-43E2-9C7E-5F3F55C750BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C07861-F15D-4BD9-BDE8-F297564CC0B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +188,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -224,11 +218,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,42 +504,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="19.88671875" customWidth="1"/>
-    <col min="21" max="21" width="18.21875" customWidth="1"/>
-    <col min="22" max="26" width="18.6640625" customWidth="1"/>
-    <col min="27" max="27" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="26" width="18.7109375" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,9 +642,9 @@
       <c r="AH1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="3"/>
+      <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -742,7 +735,7 @@
       <c r="AD2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2">
         <v>9.7759999999999998</v>
       </c>
       <c r="AF2">
@@ -755,7 +748,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -859,7 +852,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -963,7 +956,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1060,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1171,10 +1164,10 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="AH10" s="3"/>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1184,7 +1177,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1194,7 +1187,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1204,7 +1197,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8172ACCF-880F-4DE3-9BAF-BC6101077D22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687F7AC-12B5-42F8-84EF-01D063A4CE2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,6 +181,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>0.29944907087005901</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -695,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="T2" s="3">
         <v>5.10204E-2</v>
@@ -751,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>57</v>
+        <v>0.28136043946110434</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -799,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>2.2599999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="T3" s="3">
         <v>7.1428500000000006E-2</v>
@@ -855,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>0.16444947636569487</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -903,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1.82</v>
+        <v>2.4949999999999997</v>
       </c>
       <c r="T4" s="3">
         <v>9.4387755099999998E-2</v>
@@ -959,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>7.1327483724879709E-2</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1007,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1.35</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T5" s="3">
         <v>7.3979591836699998E-2</v>
@@ -1063,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>0.1834135295782621</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1111,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1.69</v>
+        <v>2.1650000000000005</v>
       </c>
       <c r="T6" s="3">
         <v>6.6326499999999997E-2</v>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687F7AC-12B5-42F8-84EF-01D063A4CE2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975E3EF0-8D04-4E87-BC3F-8C70D2E84F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -166,8 +177,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -213,11 +225,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,44 +513,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" customWidth="1"/>
-    <col min="22" max="26" width="18.7109375" customWidth="1"/>
-    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" customWidth="1"/>
+    <col min="22" max="26" width="18.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +655,7 @@
       </c>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -653,11 +668,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="E2" s="3">
+        <v>0.90925</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.30649999999999999</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -689,23 +704,23 @@
       <c r="P2">
         <v>240</v>
       </c>
-      <c r="Q2">
-        <v>0.16900000000000001</v>
+      <c r="Q2" s="3">
+        <v>0.30000000000000004</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2">
-        <v>2.09</v>
+      <c r="S2" s="4">
+        <v>2.06</v>
       </c>
       <c r="T2" s="3">
-        <v>5.10204E-2</v>
+        <v>0.02</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="W2">
         <v>30</v>
@@ -719,11 +734,11 @@
       <c r="Z2">
         <v>120</v>
       </c>
-      <c r="AA2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="AB2">
-        <v>0.09</v>
+      <c r="AA2" s="3">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="AC2">
         <v>0.1</v>
@@ -732,19 +747,19 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE2">
-        <v>9.7759999999999998</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="AF2">
-        <v>0.17499999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="AG2">
-        <v>7.91</v>
+        <v>9.5839999999999996</v>
       </c>
       <c r="AH2">
-        <v>0.39400000000000002</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -757,11 +772,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="E3" s="3">
+        <v>0.84175</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.34110000000000001</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -793,23 +808,23 @@
       <c r="P3">
         <v>240</v>
       </c>
-      <c r="Q3">
-        <v>0.20100000000000001</v>
+      <c r="Q3" s="3">
+        <v>0.35</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="S3">
-        <v>2.61</v>
+      <c r="S3" s="4">
+        <v>2.58</v>
       </c>
       <c r="T3" s="3">
-        <v>7.1428500000000006E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="W3">
         <v>30</v>
@@ -823,11 +838,11 @@
       <c r="Z3">
         <v>120</v>
       </c>
-      <c r="AA3">
-        <v>7.8E-2</v>
-      </c>
-      <c r="AB3">
-        <v>8.5000000000000006E-2</v>
+      <c r="AA3" s="3">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="AC3">
         <v>9.1999999999999998E-2</v>
@@ -836,19 +851,19 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="AE3">
-        <v>9.4870000000000001</v>
+        <v>9.2439999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.23100000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="AG3">
-        <v>8.0510000000000002</v>
+        <v>9.2739999999999991</v>
       </c>
       <c r="AH3">
-        <v>0.41699999999999998</v>
+        <v>0.121</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -864,7 +879,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4">
@@ -903,17 +918,17 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>2.4949999999999997</v>
+      <c r="S4" s="4">
+        <v>1.675</v>
       </c>
       <c r="T4" s="3">
-        <v>9.4387755099999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="W4">
         <v>60</v>
@@ -927,11 +942,11 @@
       <c r="Z4">
         <v>120</v>
       </c>
-      <c r="AA4">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="AB4">
-        <v>7.1999999999999995E-2</v>
+      <c r="AA4" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AC4">
         <v>8.3000000000000004E-2</v>
@@ -940,19 +955,19 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE4">
-        <v>8.2029999999999994</v>
+        <v>7.569</v>
       </c>
       <c r="AF4">
-        <v>0.372</v>
+        <v>0.217</v>
       </c>
       <c r="AG4">
-        <v>8.7249999999999996</v>
+        <v>8.8160000000000007</v>
       </c>
       <c r="AH4">
-        <v>0.60799999999999998</v>
+        <v>0.185</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -965,11 +980,11 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
+      <c r="E5" s="3">
+        <v>0.76824999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.36599999999999999</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -978,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1001,23 +1016,23 @@
       <c r="P5">
         <v>240</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
+      <c r="Q5" s="3">
+        <v>0.85</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>2.2000000000000002</v>
+      <c r="S5" s="4">
+        <v>2.17</v>
       </c>
       <c r="T5" s="3">
-        <v>7.3979591836699998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="W5">
         <v>60</v>
@@ -1031,11 +1046,11 @@
       <c r="Z5">
         <v>120</v>
       </c>
-      <c r="AA5">
-        <v>7.8E-2</v>
-      </c>
-      <c r="AB5">
-        <v>0.09</v>
+      <c r="AA5" s="3">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="AC5">
         <v>0.1</v>
@@ -1044,19 +1059,19 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE5">
-        <v>8.0470000000000006</v>
+        <v>8.5990000000000002</v>
       </c>
       <c r="AF5">
-        <v>0.44600000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="AG5">
-        <v>8.0470000000000006</v>
+        <v>9.2690000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.44600000000000001</v>
+        <v>0.157</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1070,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.3881</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1082,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1105,23 +1120,23 @@
       <c r="P6">
         <v>240</v>
       </c>
-      <c r="Q6">
-        <v>0.16900000000000001</v>
+      <c r="Q6" s="3">
+        <v>0.26</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>2.1650000000000005</v>
+      <c r="S6" s="4">
+        <v>1.885</v>
       </c>
       <c r="T6" s="3">
-        <v>6.6326499999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="W6">
         <v>60</v>
@@ -1135,11 +1150,11 @@
       <c r="Z6">
         <v>120</v>
       </c>
-      <c r="AA6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AB6">
-        <v>7.1999999999999995E-2</v>
+      <c r="AA6" s="3">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="AC6">
         <v>8.3000000000000004E-2</v>
@@ -1148,22 +1163,22 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE6">
-        <v>9.1999999999999993</v>
+        <v>9.1579999999999995</v>
       </c>
       <c r="AF6">
-        <v>0.32</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AG6">
-        <v>7.8360000000000003</v>
+        <v>9.5090000000000003</v>
       </c>
       <c r="AH6">
-        <v>0.53800000000000003</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1173,8 +1188,8 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="S12" s="1"/>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="S12" s="6"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1183,8 +1198,8 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="S13" s="1"/>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="S13" s="6"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1193,7 +1208,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1203,6 +1218,12 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="S16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975E3EF0-8D04-4E87-BC3F-8C70D2E84F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252A6E63-24A2-4A4D-8CE8-F2319B9C6FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,10 +747,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE2">
-        <v>9.4499999999999993</v>
+        <v>9.4529999999999994</v>
       </c>
       <c r="AF2">
-        <v>9.1999999999999998E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AG2">
         <v>9.5839999999999996</v>
@@ -851,10 +851,10 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="AE3">
-        <v>9.2439999999999998</v>
+        <v>9.2490000000000006</v>
       </c>
       <c r="AF3">
-        <v>0.122</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="AG3">
         <v>9.2739999999999991</v>
@@ -955,10 +955,10 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE4">
-        <v>7.569</v>
+        <v>8.2430000000000003</v>
       </c>
       <c r="AF4">
-        <v>0.217</v>
+        <v>0.105</v>
       </c>
       <c r="AG4">
         <v>8.8160000000000007</v>
@@ -1059,10 +1059,10 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE5">
-        <v>8.5990000000000002</v>
+        <v>8.66</v>
       </c>
       <c r="AF5">
-        <v>0.40899999999999997</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="AG5">
         <v>9.2690000000000001</v>
@@ -1163,10 +1163,10 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE6">
-        <v>9.1579999999999995</v>
+        <v>9.4120000000000008</v>
       </c>
       <c r="AF6">
-        <v>0.19500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="AG6">
         <v>9.5090000000000003</v>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252A6E63-24A2-4A4D-8CE8-F2319B9C6FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1C417F-1FB1-49A8-927A-EFB170B81FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31215" yWindow="4935" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,16 +747,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE2">
-        <v>9.4529999999999994</v>
+        <v>12.763999999999999</v>
       </c>
       <c r="AF2">
-        <v>4.5999999999999999E-2</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="AG2">
-        <v>9.5839999999999996</v>
+        <v>14.597</v>
       </c>
       <c r="AH2">
-        <v>0.1</v>
+        <v>1.4590000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -851,16 +851,16 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="AE3">
-        <v>9.2490000000000006</v>
+        <v>10.414999999999999</v>
       </c>
       <c r="AF3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="AG3">
-        <v>9.2739999999999991</v>
+        <v>10.736000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.121</v>
+        <v>1.3029999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -955,16 +955,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE4">
-        <v>8.2430000000000003</v>
+        <v>3.8220000000000001</v>
       </c>
       <c r="AF4">
-        <v>0.105</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="AG4">
-        <v>8.8160000000000007</v>
+        <v>6.86</v>
       </c>
       <c r="AH4">
-        <v>0.185</v>
+        <v>1.2789999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
@@ -1059,16 +1059,16 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE5">
-        <v>8.66</v>
+        <v>5.9</v>
       </c>
       <c r="AF5">
-        <v>0.21099999999999999</v>
+        <v>1.2589999999999999</v>
       </c>
       <c r="AG5">
-        <v>9.2690000000000001</v>
+        <v>10.734999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.157</v>
+        <v>1.698</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
@@ -1163,16 +1163,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE6">
-        <v>9.4120000000000008</v>
+        <v>12.301</v>
       </c>
       <c r="AF6">
-        <v>0.105</v>
+        <v>1.298</v>
       </c>
       <c r="AG6">
-        <v>9.5090000000000003</v>
+        <v>13.621</v>
       </c>
       <c r="AH6">
-        <v>0.14099999999999999</v>
+        <v>1.9330000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">

--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1C417F-1FB1-49A8-927A-EFB170B81FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801CF929-EC2F-44B9-90FD-D48BD17F04BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="4935" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,16 +747,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE2">
-        <v>12.763999999999999</v>
+        <v>12764</v>
       </c>
       <c r="AF2">
-        <v>0.58699999999999997</v>
+        <v>587</v>
       </c>
       <c r="AG2">
-        <v>14.597</v>
+        <v>14597</v>
       </c>
       <c r="AH2">
-        <v>1.4590000000000001</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -851,16 +851,16 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="AE3">
-        <v>10.414999999999999</v>
+        <v>10415</v>
       </c>
       <c r="AF3">
-        <v>0.63600000000000001</v>
+        <v>636</v>
       </c>
       <c r="AG3">
-        <v>10.736000000000001</v>
+        <v>10736</v>
       </c>
       <c r="AH3">
-        <v>1.3029999999999999</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -955,16 +955,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE4">
-        <v>3.8220000000000001</v>
+        <v>3822</v>
       </c>
       <c r="AF4">
-        <v>0.40200000000000002</v>
+        <v>402</v>
       </c>
       <c r="AG4">
-        <v>6.86</v>
+        <v>6860</v>
       </c>
       <c r="AH4">
-        <v>1.2789999999999999</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
@@ -1059,16 +1059,16 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE5">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
       <c r="AF5">
-        <v>1.2589999999999999</v>
+        <v>1259</v>
       </c>
       <c r="AG5">
-        <v>10.734999999999999</v>
+        <v>10735</v>
       </c>
       <c r="AH5">
-        <v>1.698</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
@@ -1163,16 +1163,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE6">
-        <v>12.301</v>
+        <v>12301</v>
       </c>
       <c r="AF6">
-        <v>1.298</v>
+        <v>1298</v>
       </c>
       <c r="AG6">
-        <v>13.621</v>
+        <v>13621</v>
       </c>
       <c r="AH6">
-        <v>1.9330000000000001</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">

--- a/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_citizen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s4\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A01490-844D-484C-A22C-A95BC26F6316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801CF929-EC2F-44B9-90FD-D48BD17F04BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,18 +205,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,7 +233,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,16 +641,16 @@
       <c r="AD1" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" t="s">
         <v>38</v>
       </c>
       <c r="AI1" s="2"/>
@@ -753,21 +746,17 @@
       <c r="AD2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE2" s="7">
-        <f>12764*0.87</f>
-        <v>11104.68</v>
-      </c>
-      <c r="AF2" s="7">
-        <f>587*0.87</f>
-        <v>510.69</v>
-      </c>
-      <c r="AG2" s="7">
-        <f>14597*0.87</f>
-        <v>12699.39</v>
-      </c>
-      <c r="AH2" s="7">
-        <f>1459*0.87</f>
-        <v>1269.33</v>
+      <c r="AE2">
+        <v>12764</v>
+      </c>
+      <c r="AF2">
+        <v>587</v>
+      </c>
+      <c r="AG2">
+        <v>14597</v>
+      </c>
+      <c r="AH2">
+        <v>1459</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -861,21 +850,17 @@
       <c r="AD3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AE3" s="7">
-        <f>10415*0.87</f>
-        <v>9061.0499999999993</v>
-      </c>
-      <c r="AF3" s="7">
-        <f>636*0.87</f>
-        <v>553.32000000000005</v>
-      </c>
-      <c r="AG3" s="7">
-        <f>10736*0.87</f>
-        <v>9340.32</v>
-      </c>
-      <c r="AH3" s="7">
-        <f>1303*0.87</f>
-        <v>1133.6099999999999</v>
+      <c r="AE3">
+        <v>10415</v>
+      </c>
+      <c r="AF3">
+        <v>636</v>
+      </c>
+      <c r="AG3">
+        <v>10736</v>
+      </c>
+      <c r="AH3">
+        <v>1303</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -969,21 +954,17 @@
       <c r="AD4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AE4" s="7">
-        <f>3822*0.87</f>
-        <v>3325.14</v>
-      </c>
-      <c r="AF4" s="7">
-        <f>402*0.87</f>
-        <v>349.74</v>
-      </c>
-      <c r="AG4" s="7">
-        <f>6860*0.87</f>
-        <v>5968.2</v>
-      </c>
-      <c r="AH4" s="7">
-        <f>1279*0.87</f>
-        <v>1112.73</v>
+      <c r="AE4">
+        <v>3822</v>
+      </c>
+      <c r="AF4">
+        <v>402</v>
+      </c>
+      <c r="AG4">
+        <v>6860</v>
+      </c>
+      <c r="AH4">
+        <v>1279</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
@@ -1077,21 +1058,17 @@
       <c r="AD5">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AE5" s="7">
-        <f>5900*0.87</f>
-        <v>5133</v>
-      </c>
-      <c r="AF5" s="7">
-        <f>1259*0.87</f>
-        <v>1095.33</v>
-      </c>
-      <c r="AG5" s="7">
-        <f>10735*0.87</f>
-        <v>9339.4500000000007</v>
-      </c>
-      <c r="AH5" s="7">
-        <f>1698*0.87</f>
-        <v>1477.26</v>
+      <c r="AE5">
+        <v>5900</v>
+      </c>
+      <c r="AF5">
+        <v>1259</v>
+      </c>
+      <c r="AG5">
+        <v>10735</v>
+      </c>
+      <c r="AH5">
+        <v>1698</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
@@ -1185,21 +1162,17 @@
       <c r="AD6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AE6" s="7">
-        <f>12301*0.87</f>
-        <v>10701.87</v>
-      </c>
-      <c r="AF6" s="7">
-        <f>1298*0.87</f>
-        <v>1129.26</v>
-      </c>
-      <c r="AG6" s="7">
-        <f>13621*0.87</f>
-        <v>11850.27</v>
-      </c>
-      <c r="AH6" s="7">
-        <f>1933*0.87</f>
-        <v>1681.71</v>
+      <c r="AE6">
+        <v>12301</v>
+      </c>
+      <c r="AF6">
+        <v>1298</v>
+      </c>
+      <c r="AG6">
+        <v>13621</v>
+      </c>
+      <c r="AH6">
+        <v>1933</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
